--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Recoveries\@Ms_d\Data Analysis\Resources\Datacamp Resources\Excel\Financial Modeling in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB014DE-FA6F-46E5-B4FC-A965DAD523B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9084A2E-97EF-450A-BC04-CBB0DDA35AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4FDF45FB-1CFF-4C45-826A-662E4B25C150}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Units</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Nper</t>
-  </si>
-  <si>
-    <t>johnboscokene95@gmail.com | Johnny419 | Ken042 | 2741584</t>
   </si>
   <si>
     <t>Building Name</t>
@@ -526,58 +523,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>455983</xdr:colOff>
+      <xdr:colOff>338525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173907</xdr:rowOff>
+      <xdr:rowOff>180739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>678909</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4009</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96D38F3-082B-A193-B498-003F3B517AFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="20156"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10538297" y="173907"/>
-          <a:ext cx="2594043" cy="1558831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>435719</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>739707</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>182393</xdr:rowOff>
+      <xdr:colOff>642513</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -593,14 +547,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect t="4105" b="14362"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10518033" y="141861"/>
-          <a:ext cx="2675105" cy="1773271"/>
+          <a:off x="9776051" y="180739"/>
+          <a:ext cx="2665799" cy="1790022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A457A92-7447-413E-AB34-D9282C61BBCD}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +901,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -999,7 +953,7 @@
         <v>2003</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="37">
         <f>J3/J2</f>
@@ -1031,7 +985,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -1049,10 +1003,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>37</v>
@@ -1155,43 +1109,43 @@
         <v>45991</v>
       </c>
       <c r="E15" s="50">
-        <f>EOMONTH(D15,12)</f>
+        <f t="shared" ref="E15:N15" si="0">EOMONTH(D15,12)</f>
         <v>46356</v>
       </c>
       <c r="F15" s="50">
-        <f>EOMONTH(E15,12)</f>
+        <f t="shared" si="0"/>
         <v>46721</v>
       </c>
       <c r="G15" s="50">
-        <f>EOMONTH(F15,12)</f>
+        <f t="shared" si="0"/>
         <v>47087</v>
       </c>
       <c r="H15" s="50">
-        <f>EOMONTH(G15,12)</f>
+        <f t="shared" si="0"/>
         <v>47452</v>
       </c>
       <c r="I15" s="50">
-        <f>EOMONTH(H15,12)</f>
+        <f t="shared" si="0"/>
         <v>47817</v>
       </c>
       <c r="J15" s="50">
-        <f>EOMONTH(I15,12)</f>
+        <f t="shared" si="0"/>
         <v>48182</v>
       </c>
       <c r="K15" s="50">
-        <f>EOMONTH(J15,12)</f>
+        <f t="shared" si="0"/>
         <v>48548</v>
       </c>
       <c r="L15" s="50">
-        <f>EOMONTH(K15,12)</f>
+        <f t="shared" si="0"/>
         <v>48913</v>
       </c>
       <c r="M15" s="50">
-        <f>EOMONTH(L15,12)</f>
+        <f t="shared" si="0"/>
         <v>49278</v>
       </c>
       <c r="N15" s="50">
-        <f>EOMONTH(M15,12)</f>
+        <f t="shared" si="0"/>
         <v>49643</v>
       </c>
     </row>
@@ -1204,43 +1158,43 @@
         <v>0</v>
       </c>
       <c r="E16" s="31">
-        <f>D16+1</f>
+        <f t="shared" ref="E16:N16" si="1">D16+1</f>
         <v>1</v>
       </c>
       <c r="F16" s="31">
-        <f>E16+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G16" s="31">
-        <f>F16+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H16" s="31">
-        <f>G16+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I16" s="31">
-        <f>H16+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J16" s="31">
-        <f>I16+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K16" s="31">
-        <f>J16+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L16" s="31">
-        <f>K16+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M16" s="31">
-        <f>L16+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N16" s="31">
-        <f>M16+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1262,43 +1216,43 @@
         <v>0</v>
       </c>
       <c r="E18" s="15">
-        <f>IF(HoldingPeriod&lt;E16,0,E19*Units*12)</f>
+        <f t="shared" ref="E18:N18" si="2">IF(HoldingPeriod&lt;E16,0,E19*Units*12)</f>
         <v>9336000</v>
       </c>
       <c r="F18" s="15">
-        <f>IF(HoldingPeriod&lt;F16,0,F19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>9802800</v>
       </c>
       <c r="G18" s="15">
-        <f>IF(HoldingPeriod&lt;G16,0,G19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>10292940</v>
       </c>
       <c r="H18" s="15">
-        <f>IF(HoldingPeriod&lt;H16,0,H19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>10807587</v>
       </c>
       <c r="I18" s="15">
-        <f>IF(HoldingPeriod&lt;I16,0,I19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>11347966.350000001</v>
       </c>
       <c r="J18" s="15">
-        <f>IF(HoldingPeriod&lt;J16,0,J19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>11915364.667500004</v>
       </c>
       <c r="K18" s="15">
-        <f>IF(HoldingPeriod&lt;K16,0,K19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>12511132.900875004</v>
       </c>
       <c r="L18" s="15">
-        <f>IF(HoldingPeriod&lt;L16,0,L19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>13136689.545918753</v>
       </c>
       <c r="M18" s="15">
-        <f>IF(HoldingPeriod&lt;M16,0,M19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>13793524.023214694</v>
       </c>
       <c r="N18" s="15">
-        <f>IF(HoldingPeriod&lt;N16,0,N19*Units*12)</f>
+        <f t="shared" si="2"/>
         <v>14483200.224375427</v>
       </c>
     </row>
@@ -1315,39 +1269,39 @@
         <v>38900</v>
       </c>
       <c r="F19" s="16">
-        <f>E19*(1+RentGrowth)</f>
+        <f t="shared" ref="F19:N19" si="3">E19*(1+RentGrowth)</f>
         <v>40845</v>
       </c>
       <c r="G19" s="16">
-        <f>F19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>42887.25</v>
       </c>
       <c r="H19" s="16">
-        <f>G19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>45031.612500000003</v>
       </c>
       <c r="I19" s="16">
-        <f>H19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>47283.193125000005</v>
       </c>
       <c r="J19" s="16">
-        <f>I19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>49647.352781250011</v>
       </c>
       <c r="K19" s="16">
-        <f>J19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>52129.720420312515</v>
       </c>
       <c r="L19" s="16">
-        <f>K19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>54736.20644132814</v>
       </c>
       <c r="M19" s="16">
-        <f>L19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>57473.016763394553</v>
       </c>
       <c r="N19" s="16">
-        <f>M19*(1+RentGrowth)</f>
+        <f t="shared" si="3"/>
         <v>60346.667601564281</v>
       </c>
     </row>
@@ -1373,47 +1327,47 @@
         <v>-220500</v>
       </c>
       <c r="D21" s="16">
-        <f>-D18*(1-D23)</f>
+        <f t="shared" ref="D21:N21" si="4">-D18*(1-D23)</f>
         <v>0</v>
       </c>
       <c r="E21" s="16">
-        <f>-E18*(1-E23)</f>
+        <f t="shared" si="4"/>
         <v>-2334000</v>
       </c>
       <c r="F21" s="16">
-        <f>-F18*(1-F23)</f>
+        <f t="shared" si="4"/>
         <v>-980279.99999999977</v>
       </c>
       <c r="G21" s="16">
-        <f>-G18*(1-G23)</f>
+        <f t="shared" si="4"/>
         <v>-514647.00000000047</v>
       </c>
       <c r="H21" s="16">
-        <f>-H18*(1-H23)</f>
+        <f t="shared" si="4"/>
         <v>-540379.35000000044</v>
       </c>
       <c r="I21" s="16">
-        <f>-I18*(1-I23)</f>
+        <f t="shared" si="4"/>
         <v>-567398.31750000059</v>
       </c>
       <c r="J21" s="16">
-        <f>-J18*(1-J23)</f>
+        <f t="shared" si="4"/>
         <v>-595768.23337500077</v>
       </c>
       <c r="K21" s="16">
-        <f>-K18*(1-K23)</f>
+        <f t="shared" si="4"/>
         <v>-625556.64504375076</v>
       </c>
       <c r="L21" s="16">
-        <f>-L18*(1-L23)</f>
+        <f t="shared" si="4"/>
         <v>-656834.4772959383</v>
       </c>
       <c r="M21" s="16">
-        <f>-M18*(1-M23)</f>
+        <f t="shared" si="4"/>
         <v>-689676.20116073533</v>
       </c>
       <c r="N21" s="16">
-        <f>-N18*(1-N23)</f>
+        <f t="shared" si="4"/>
         <v>-724160.01121877204</v>
       </c>
     </row>
@@ -1462,43 +1416,43 @@
       <c r="B23" s="23"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29">
-        <f>E22/Units</f>
+        <f t="shared" ref="E23:N23" si="5">E22/Units</f>
         <v>0.75</v>
       </c>
       <c r="F23" s="29">
-        <f>F22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="G23" s="29">
-        <f>G22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="H23" s="29">
-        <f>H22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="I23" s="29">
-        <f>I22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="J23" s="29">
-        <f>J22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="K23" s="29">
-        <f>K22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="L23" s="29">
-        <f>L22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="M23" s="29">
-        <f>M22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="N23" s="29">
-        <f>N22/Units</f>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
     </row>
@@ -1528,43 +1482,43 @@
         <v>0</v>
       </c>
       <c r="E25" s="17">
-        <f>-SUM(E21,E18)*E26</f>
+        <f t="shared" ref="E25:N25" si="6">-SUM(E21,E18)*E26</f>
         <v>-840240</v>
       </c>
       <c r="F25" s="17">
-        <f>-SUM(F21,F18)*F26</f>
+        <f t="shared" si="6"/>
         <v>-529351.19999999995</v>
       </c>
       <c r="G25" s="17">
-        <f>-SUM(G21,G18)*G26</f>
+        <f t="shared" si="6"/>
         <v>-391131.72000000003</v>
       </c>
       <c r="H25" s="17">
-        <f>-SUM(H21,H18)*H26</f>
+        <f t="shared" si="6"/>
         <v>-410688.30600000004</v>
       </c>
       <c r="I25" s="17">
-        <f>-SUM(I21,I18)*I26</f>
+        <f t="shared" si="6"/>
         <v>-431222.72130000003</v>
       </c>
       <c r="J25" s="17">
-        <f>-SUM(J21,J18)*J26</f>
+        <f t="shared" si="6"/>
         <v>-452783.85736500012</v>
       </c>
       <c r="K25" s="17">
-        <f>-SUM(K21,K18)*K26</f>
+        <f t="shared" si="6"/>
         <v>-475423.05023325013</v>
       </c>
       <c r="L25" s="17">
-        <f>-SUM(L21,L18)*L26</f>
+        <f t="shared" si="6"/>
         <v>-499194.20274491259</v>
       </c>
       <c r="M25" s="17">
-        <f>-SUM(M21,M18)*M26</f>
+        <f t="shared" si="6"/>
         <v>-524153.91288215842</v>
       </c>
       <c r="N25" s="17">
-        <f>-SUM(N21,N18)*N26</f>
+        <f t="shared" si="6"/>
         <v>-550361.60852626618</v>
       </c>
     </row>
@@ -1628,47 +1582,47 @@
         <v>5488500</v>
       </c>
       <c r="D28" s="18">
-        <f>SUM(D18,D21,D25)</f>
+        <f t="shared" ref="D28:N28" si="7">SUM(D18,D21,D25)</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <f>SUM(E18,E21,E25)</f>
+        <f t="shared" si="7"/>
         <v>6161760</v>
       </c>
       <c r="F28" s="18">
-        <f>SUM(F18,F21,F25)</f>
+        <f t="shared" si="7"/>
         <v>8293168.7999999998</v>
       </c>
       <c r="G28" s="18">
-        <f>SUM(G18,G21,G25)</f>
+        <f t="shared" si="7"/>
         <v>9387161.2799999993</v>
       </c>
       <c r="H28" s="18">
-        <f>SUM(H18,H21,H25)</f>
+        <f t="shared" si="7"/>
         <v>9856519.3440000005</v>
       </c>
       <c r="I28" s="18">
-        <f>SUM(I18,I21,I25)</f>
+        <f t="shared" si="7"/>
         <v>10349345.3112</v>
       </c>
       <c r="J28" s="18">
-        <f>SUM(J18,J21,J25)</f>
+        <f t="shared" si="7"/>
         <v>10866812.576760001</v>
       </c>
       <c r="K28" s="18">
-        <f>SUM(K18,K21,K25)</f>
+        <f t="shared" si="7"/>
         <v>11410153.205598002</v>
       </c>
       <c r="L28" s="18">
-        <f>SUM(L18,L21,L25)</f>
+        <f t="shared" si="7"/>
         <v>11980660.865877902</v>
       </c>
       <c r="M28" s="18">
-        <f>SUM(M18,M21,M25)</f>
+        <f t="shared" si="7"/>
         <v>12579693.909171801</v>
       </c>
       <c r="N28" s="18">
-        <f>SUM(N18,N21,N25)</f>
+        <f t="shared" si="7"/>
         <v>13208678.604630388</v>
       </c>
     </row>
@@ -1712,27 +1666,27 @@
         <v>-410688.30600000004</v>
       </c>
       <c r="I30" s="19">
-        <f>SUM(I18+I21)*I31</f>
+        <f t="shared" ref="I30:N30" si="8">SUM(I18+I21)*I31</f>
         <v>431222.72130000003</v>
       </c>
       <c r="J30" s="19">
-        <f>SUM(J18+J21)*J31</f>
+        <f t="shared" si="8"/>
         <v>452783.85736500012</v>
       </c>
       <c r="K30" s="19">
-        <f>SUM(K18+K21)*K31</f>
+        <f t="shared" si="8"/>
         <v>475423.05023325013</v>
       </c>
       <c r="L30" s="19">
-        <f>SUM(L18+L21)*L31</f>
+        <f t="shared" si="8"/>
         <v>499194.20274491259</v>
       </c>
       <c r="M30" s="19">
-        <f>SUM(M18+M21)*M31</f>
+        <f t="shared" si="8"/>
         <v>524153.91288215842</v>
       </c>
       <c r="N30" s="19">
-        <f>SUM(N18+N21)*N31</f>
+        <f t="shared" si="8"/>
         <v>550361.60852626618</v>
       </c>
     </row>
@@ -1799,43 +1753,43 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="19">
-        <f>-SUM(E$18+E$21)*E34</f>
+        <f t="shared" ref="E33:N33" si="9">-SUM(E$18+E$21)*E34</f>
         <v>-210060</v>
       </c>
       <c r="F33" s="19">
-        <f>-SUM(F$18+F$21)*F34</f>
+        <f t="shared" si="9"/>
         <v>-44112.6</v>
       </c>
       <c r="G33" s="19">
-        <f>-SUM(G$18+G$21)*G34</f>
+        <f t="shared" si="9"/>
         <v>-14667.4395</v>
       </c>
       <c r="H33" s="19">
-        <f>-SUM(H$18+H$21)*H34</f>
+        <f t="shared" si="9"/>
         <v>-15400.811475</v>
       </c>
       <c r="I33" s="19">
-        <f>-SUM(I$18+I$21)*I34</f>
+        <f t="shared" si="9"/>
         <v>-16170.852048750001</v>
       </c>
       <c r="J33" s="19">
-        <f>-SUM(J$18+J$21)*J34</f>
+        <f t="shared" si="9"/>
         <v>-16979.394651187504</v>
       </c>
       <c r="K33" s="19">
-        <f>-SUM(K$18+K$21)*K34</f>
+        <f t="shared" si="9"/>
         <v>-17828.364383746881</v>
       </c>
       <c r="L33" s="19">
-        <f>-SUM(L$18+L$21)*L34</f>
+        <f t="shared" si="9"/>
         <v>-18719.782602934221</v>
       </c>
       <c r="M33" s="19">
-        <f>-SUM(M$18+M$21)*M34</f>
+        <f t="shared" si="9"/>
         <v>-19655.771733080939</v>
       </c>
       <c r="N33" s="19">
-        <f>-SUM(N$18+N$21)*N34</f>
+        <f t="shared" si="9"/>
         <v>-20638.560319734985</v>
       </c>
     </row>
@@ -1901,43 +1855,43 @@
         <v>0</v>
       </c>
       <c r="E36" s="19">
-        <f>-IF(HoldingPeriod&lt;E16,0,(Units-E22)*E37)</f>
+        <f t="shared" ref="E36:N36" si="10">-IF(HoldingPeriod&lt;E16,0,(Units-E22)*E37)</f>
         <v>-109130</v>
       </c>
       <c r="F36" s="19">
-        <f>-IF(HoldingPeriod&lt;F16,0,(Units-F22)*F37)</f>
+        <f t="shared" si="10"/>
         <v>-44525.04</v>
       </c>
       <c r="G36" s="19">
-        <f>-IF(HoldingPeriod&lt;G16,0,(Units-G22)*G37)</f>
+        <f t="shared" si="10"/>
         <v>-22707.770400000001</v>
       </c>
       <c r="H36" s="19">
-        <f>-IF(HoldingPeriod&lt;H16,0,(Units-H22)*H37)</f>
+        <f t="shared" si="10"/>
         <v>-23161.925808</v>
       </c>
       <c r="I36" s="19">
-        <f>-IF(HoldingPeriod&lt;I16,0,(Units-I22)*I37)</f>
+        <f t="shared" si="10"/>
         <v>-23625.16432416</v>
       </c>
       <c r="J36" s="19">
-        <f>-IF(HoldingPeriod&lt;J16,0,(Units-J22)*J37)</f>
+        <f t="shared" si="10"/>
         <v>-24097.667610643199</v>
       </c>
       <c r="K36" s="19">
-        <f>-IF(HoldingPeriod&lt;K16,0,(Units-K22)*K37)</f>
+        <f t="shared" si="10"/>
         <v>-24579.620962856065</v>
       </c>
       <c r="L36" s="19">
-        <f>-IF(HoldingPeriod&lt;L16,0,(Units-L22)*L37)</f>
+        <f t="shared" si="10"/>
         <v>-25071.213382113187</v>
       </c>
       <c r="M36" s="19">
-        <f>-IF(HoldingPeriod&lt;M16,0,(Units-M22)*M37)</f>
+        <f t="shared" si="10"/>
         <v>-25572.637649755452</v>
       </c>
       <c r="N36" s="19">
-        <f>-IF(HoldingPeriod&lt;N16,0,(Units-N22)*N37)</f>
+        <f t="shared" si="10"/>
         <v>-26084.09040275056</v>
       </c>
     </row>
@@ -1951,39 +1905,39 @@
         <v>21826</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ref="F37:N37" si="0">E37*(1+CostGrowth)</f>
+        <f t="shared" ref="F37:N37" si="11">E37*(1+CostGrowth)</f>
         <v>22262.52</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>22707.770400000001</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>23161.925808</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>23625.16432416</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>24097.667610643199</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>24579.620962856065</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>25071.213382113187</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>25572.637649755452</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>26084.09040275056</v>
       </c>
     </row>
@@ -2015,39 +1969,39 @@
         <v>-1620000</v>
       </c>
       <c r="F39" s="19">
-        <f>IF(HoldingPeriod&lt;F16,0,E$39*(1+CostGrowth))</f>
+        <f t="shared" ref="F39:N39" si="12">IF(HoldingPeriod&lt;F16,0,E$39*(1+CostGrowth))</f>
         <v>-1652400</v>
       </c>
       <c r="G39" s="19">
-        <f>IF(HoldingPeriod&lt;G16,0,F$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1685448</v>
       </c>
       <c r="H39" s="19">
-        <f>IF(HoldingPeriod&lt;H16,0,G$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1719156.96</v>
       </c>
       <c r="I39" s="19">
-        <f>IF(HoldingPeriod&lt;I16,0,H$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1753540.0992000001</v>
       </c>
       <c r="J39" s="19">
-        <f>IF(HoldingPeriod&lt;J16,0,I$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1788610.9011840001</v>
       </c>
       <c r="K39" s="19">
-        <f>IF(HoldingPeriod&lt;K16,0,J$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1824383.11920768</v>
       </c>
       <c r="L39" s="19">
-        <f>IF(HoldingPeriod&lt;L16,0,K$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1860870.7815918336</v>
       </c>
       <c r="M39" s="19">
-        <f>IF(HoldingPeriod&lt;M16,0,L$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1898088.1972236703</v>
       </c>
       <c r="N39" s="19">
-        <f>IF(HoldingPeriod&lt;N16,0,M$39*(1+CostGrowth))</f>
+        <f t="shared" si="12"/>
         <v>-1936049.9611681437</v>
       </c>
     </row>
@@ -2062,43 +2016,43 @@
         <v>0</v>
       </c>
       <c r="E40" s="19">
-        <f>IF(HoldingPeriod&lt;E16,0,-E41*E42)</f>
+        <f t="shared" ref="E40:N40" si="13">IF(HoldingPeriod&lt;E16,0,-E41*E42)</f>
         <v>-2044425.2500000002</v>
       </c>
       <c r="F40" s="19">
-        <f>IF(HoldingPeriod&lt;F16,0,-F41*F42)</f>
+        <f t="shared" si="13"/>
         <v>-2127020.0301000001</v>
       </c>
       <c r="G40" s="19">
-        <f>IF(HoldingPeriod&lt;G16,0,-G41*G42)</f>
+        <f t="shared" si="13"/>
         <v>-2212951.6393160401</v>
       </c>
       <c r="H40" s="19">
-        <f>IF(HoldingPeriod&lt;H16,0,-H41*H42)</f>
+        <f t="shared" si="13"/>
         <v>-2302354.8855444081</v>
       </c>
       <c r="I40" s="19">
-        <f>IF(HoldingPeriod&lt;I16,0,-I41*I42)</f>
+        <f t="shared" si="13"/>
         <v>-2395370.0229204022</v>
       </c>
       <c r="J40" s="19">
-        <f>IF(HoldingPeriod&lt;J16,0,-J41*J42)</f>
+        <f t="shared" si="13"/>
         <v>-2492142.9718463863</v>
       </c>
       <c r="K40" s="19">
-        <f>IF(HoldingPeriod&lt;K16,0,-K41*K42)</f>
+        <f t="shared" si="13"/>
         <v>-2592825.5479089809</v>
       </c>
       <c r="L40" s="19">
-        <f>IF(HoldingPeriod&lt;L16,0,-L41*L42)</f>
+        <f t="shared" si="13"/>
         <v>-2697575.7000445034</v>
       </c>
       <c r="M40" s="19">
-        <f>IF(HoldingPeriod&lt;M16,0,-M41*M42)</f>
+        <f t="shared" si="13"/>
         <v>-2806557.7583263014</v>
       </c>
       <c r="N40" s="19">
-        <f>IF(HoldingPeriod&lt;N16,0,-N41*N42)</f>
+        <f t="shared" si="13"/>
         <v>-2919942.6917626839</v>
       </c>
     </row>
@@ -2112,39 +2066,39 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" ref="F41:N41" si="1">E41*(1+CostGrowth)</f>
+        <f t="shared" ref="F41:N41" si="14">E41*(1+CostGrowth)</f>
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.6414000000000002E-2</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.714228E-2</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.78851256E-2</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8642828112000004E-2</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.9415684674240004E-2</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4.0203998367724807E-2</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4.1008078335079301E-2</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4.1828239901780889E-2</v>
       </c>
     </row>
@@ -2159,39 +2113,39 @@
         <v>58412150</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" ref="F42:N42" si="2">E42*(1+CostGrowth)</f>
+        <f t="shared" ref="F42:N42" si="15">E42*(1+CostGrowth)</f>
         <v>59580393</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>60772000.859999999</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>61987440.8772</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>63227189.694743998</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>64491733.488638878</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>65781568.158411659</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>67097199.521579891</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>68439143.512011483</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>69807926.38225171</v>
       </c>
     </row>
@@ -2219,47 +2173,47 @@
         <v>-1983771</v>
       </c>
       <c r="D44" s="22">
-        <f t="shared" ref="D44:N44" si="3">SUM(D30,D33,D36,D39,D40)</f>
+        <f t="shared" ref="D44:N44" si="16">SUM(D30,D33,D36,D39,D40)</f>
         <v>-450000</v>
       </c>
       <c r="E44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4263695.25</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4220958.4701000005</v>
       </c>
       <c r="G44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4326906.56921604</v>
       </c>
       <c r="H44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4470762.8888274077</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-3757483.4171933122</v>
       </c>
       <c r="J44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-3869047.0779272169</v>
       </c>
       <c r="K44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-3984193.6022300133</v>
       </c>
       <c r="L44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4103043.2748764716</v>
       </c>
       <c r="M44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4225720.4520506496</v>
       </c>
       <c r="N44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>-4352353.6951270467</v>
       </c>
     </row>
@@ -2285,47 +2239,47 @@
         <v>3504729</v>
       </c>
       <c r="D46" s="18">
-        <f>SUM(D28,D44)</f>
+        <f t="shared" ref="D46:N46" si="17">SUM(D28,D44)</f>
         <v>-450000</v>
       </c>
       <c r="E46" s="18">
-        <f>SUM(E28,E44)</f>
+        <f t="shared" si="17"/>
         <v>1898064.75</v>
       </c>
       <c r="F46" s="18">
-        <f>SUM(F28,F44)</f>
+        <f t="shared" si="17"/>
         <v>4072210.3298999993</v>
       </c>
       <c r="G46" s="18">
-        <f>SUM(G28,G44)</f>
+        <f t="shared" si="17"/>
         <v>5060254.7107839594</v>
       </c>
       <c r="H46" s="18">
-        <f>SUM(H28,H44)</f>
+        <f t="shared" si="17"/>
         <v>5385756.4551725928</v>
       </c>
       <c r="I46" s="18">
-        <f>SUM(I28,I44)</f>
+        <f t="shared" si="17"/>
         <v>6591861.8940066881</v>
       </c>
       <c r="J46" s="18">
-        <f>SUM(J28,J44)</f>
+        <f t="shared" si="17"/>
         <v>6997765.4988327846</v>
       </c>
       <c r="K46" s="18">
-        <f>SUM(K28,K44)</f>
+        <f t="shared" si="17"/>
         <v>7425959.603367989</v>
       </c>
       <c r="L46" s="18">
-        <f>SUM(L28,L44)</f>
+        <f t="shared" si="17"/>
         <v>7877617.5910014305</v>
       </c>
       <c r="M46" s="18">
-        <f>SUM(M28,M44)</f>
+        <f t="shared" si="17"/>
         <v>8353973.4571211515</v>
       </c>
       <c r="N46" s="18">
-        <f>SUM(N28,N44)</f>
+        <f t="shared" si="17"/>
         <v>8856324.9095033407</v>
       </c>
     </row>
@@ -2354,43 +2308,43 @@
         <v>-58412150</v>
       </c>
       <c r="E48" s="19">
-        <f>IF(HoldingPeriod=E16,SellPrice,0)</f>
+        <f t="shared" ref="E48:N48" si="18">IF(HoldingPeriod=E16,SellPrice,0)</f>
         <v>0</v>
       </c>
       <c r="F48" s="19">
-        <f>IF(HoldingPeriod=F16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <f>IF(HoldingPeriod=G16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H48" s="19">
-        <f>IF(HoldingPeriod=H16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I48" s="19">
-        <f>IF(HoldingPeriod=I16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J48" s="19">
-        <f>IF(HoldingPeriod=J16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K48" s="19">
-        <f>IF(HoldingPeriod=K16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L48" s="19">
-        <f>IF(HoldingPeriod=L16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M48" s="19">
-        <f>IF(HoldingPeriod=M16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N48" s="19">
-        <f>IF(HoldingPeriod=N16,SellPrice,0)</f>
+        <f t="shared" si="18"/>
         <v>177126498.19006681</v>
       </c>
     </row>
@@ -2464,39 +2418,39 @@
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <f t="shared" ref="D51:N51" si="4">SUM(F48:F49)</f>
+        <f t="shared" ref="F51:N51" si="19">SUM(F48:F49)</f>
         <v>0</v>
       </c>
       <c r="G51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-600000</v>
       </c>
       <c r="I51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1000000</v>
       </c>
       <c r="L51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N51" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>175726498.19006681</v>
       </c>
     </row>
@@ -2527,43 +2481,43 @@
         <v>-62362150</v>
       </c>
       <c r="E53" s="18">
-        <f t="shared" ref="D53:N53" si="5">SUM(E46,E51)</f>
+        <f t="shared" ref="E53:N53" si="20">SUM(E46,E51)</f>
         <v>1898064.75</v>
       </c>
       <c r="F53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>4072210.3298999993</v>
       </c>
       <c r="G53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>5060254.7107839594</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>4785756.4551725928</v>
       </c>
       <c r="I53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>6591861.8940066881</v>
       </c>
       <c r="J53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>6997765.4988327846</v>
       </c>
       <c r="K53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>6425959.603367989</v>
       </c>
       <c r="L53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>7877617.5910014305</v>
       </c>
       <c r="M53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8353973.4571211515</v>
       </c>
       <c r="N53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>184582823.09957016</v>
       </c>
     </row>
@@ -2630,11 +2584,6 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90">
-        <v>2300</v>
-      </c>
     </row>
   </sheetData>
   <scenarios current="0" show="0" sqref="N46">
@@ -2664,7 +2613,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,14 +2751,9 @@
       <c r="P15" s="12"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>56</v>
-      </c>
+      <c r="A60" s="51"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" xr:uid="{D82C7C34-56C6-40F6-861C-D169EA8D86A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>